--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2071030.783613163</v>
+        <v>-2073028.456626007</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268811.417183315</v>
+        <v>390768.8068584053</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>352.5145540636264</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>356.0357951515721</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +753,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>107.8524135464459</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>99.90187484148915</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>16.41010763696638</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>91.81420333947209</v>
       </c>
     </row>
     <row r="6">
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>95.29787616176765</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>66.93751410372052</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>225.8576516549383</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2381480623296</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,7 +1385,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.287249111317</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274074</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>33.35146980185877</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>137.814011856689</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.5187349146325</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>205.8417327459715</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>157.1439802807839</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>9.47796323858489</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,16 +2242,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>51.93585215409435</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>81.68913743188251</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D25" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E25" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G25" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
@@ -2533,16 +2533,16 @@
         <v>218.1054622689365</v>
       </c>
       <c r="V25" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W25" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X25" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S28" t="n">
-        <v>129.788919853962</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T28" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U28" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="29">
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415187</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3004,19 +3004,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069523</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415187</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689372</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941873</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857165</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373688</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463127</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689375</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941873</v>
@@ -3487,7 +3487,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
         <v>150.4527632224541</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415187</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T40" t="n">
         <v>153.4156709287486</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857165</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373688</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463127</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941873</v>
@@ -3961,7 +3961,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
         <v>150.4527632224541</v>
@@ -4189,7 +4189,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689363</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V46" t="n">
         <v>184.0057531941873</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>799.3633507333279</v>
+        <v>768.2839875620912</v>
       </c>
       <c r="C2" t="n">
-        <v>799.3633507333279</v>
+        <v>412.208680427115</v>
       </c>
       <c r="D2" t="n">
-        <v>799.3633507333279</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E2" t="n">
-        <v>413.5750981350837</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F2" t="n">
-        <v>413.5750981350837</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V2" t="n">
-        <v>2302.336936304455</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W2" t="n">
-        <v>1949.568281034341</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X2" t="n">
-        <v>1576.102522773261</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="Y2" t="n">
-        <v>1185.96319079745</v>
+        <v>1154.883827626213</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4428,22 +4428,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2360.899071821727</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S4" t="n">
-        <v>2588.207259153126</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T4" t="n">
-        <v>2360.899071821727</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U4" t="n">
-        <v>2360.899071821727</v>
+        <v>409.5384547146242</v>
       </c>
       <c r="V4" t="n">
-        <v>2360.899071821727</v>
+        <v>154.8539665087373</v>
       </c>
       <c r="W4" t="n">
-        <v>2360.899071821727</v>
+        <v>154.8539665087373</v>
       </c>
       <c r="X4" t="n">
-        <v>2360.899071821727</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>2360.899071821727</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2118.304160219349</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
         <v>952.5674858910851</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2449.36704756292</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2118.304160219349</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W5" t="n">
-        <v>2118.304160219349</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X5" t="n">
-        <v>2118.304160219349</v>
+        <v>1421.217123115521</v>
       </c>
       <c r="Y5" t="n">
-        <v>2118.304160219349</v>
+        <v>1328.4755035807</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>113.6371076753678</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>368.8844281164663</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>773.5003462121382</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931987</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="U7" t="n">
-        <v>286.5323736931987</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="V7" t="n">
-        <v>286.5323736931987</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W7" t="n">
-        <v>286.5323736931987</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>286.5323736931987</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1816.955293888756</v>
+        <v>1761.414268258236</v>
       </c>
       <c r="C8" t="n">
-        <v>1816.955293888756</v>
+        <v>1392.451751317824</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1034.186052711073</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>1816.955293888756</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X8" t="n">
-        <v>1816.955293888756</v>
+        <v>1761.414268258236</v>
       </c>
       <c r="Y8" t="n">
-        <v>1816.955293888756</v>
+        <v>1761.414268258236</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>113.6371076753683</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>368.8844281164668</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>773.5003462121387</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1297.64725977017</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>598.044640063212</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>598.044640063212</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>598.044640063212</v>
       </c>
       <c r="U10" t="n">
-        <v>211.6913543878343</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V10" t="n">
-        <v>211.6913543878343</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5060,31 +5060,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>488.6335221749971</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.530591931886</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M12" t="n">
-        <v>1422.865911461588</v>
+        <v>1604.839867667474</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.386567099205</v>
+        <v>1949.360523305092</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2198.113937389054</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2380.757415002405</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>434.3285960683721</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>755.183133481126</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W13" t="n">
-        <v>615.9770608986119</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X13" t="n">
-        <v>615.9770608986119</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="Y13" t="n">
-        <v>615.9770608986119</v>
+        <v>130.9054447954967</v>
       </c>
     </row>
     <row r="14">
@@ -5255,67 +5255,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>122.8749291486852</v>
       </c>
       <c r="L15" t="n">
-        <v>1189.663494389109</v>
+        <v>352.8380350170344</v>
       </c>
       <c r="M15" t="n">
-        <v>1509.998813918811</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N15" t="n">
-        <v>1854.519469556429</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O15" t="n">
-        <v>2103.272883640391</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.1532743881928</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655735</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W16" t="n">
-        <v>675.7912901164498</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X16" t="n">
-        <v>447.8017392184324</v>
+        <v>781.5895395384771</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.8017392184324</v>
+        <v>573.668597370829</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,55 +5510,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>388.8958536704856</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>1002.792923427374</v>
+        <v>904.3916683255102</v>
       </c>
       <c r="M18" t="n">
-        <v>1323.128242957076</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N18" t="n">
-        <v>1667.648898594694</v>
+        <v>1648.370314660465</v>
       </c>
       <c r="O18" t="n">
-        <v>1916.402312678656</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>426.1449830812443</v>
+        <v>403.861478255592</v>
       </c>
       <c r="C19" t="n">
-        <v>257.2088001533374</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D19" t="n">
-        <v>257.2088001533374</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>257.2088001533374</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>257.2088001533374</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,10 +5689,10 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
         <v>1387.841167119728</v>
@@ -5704,19 +5704,19 @@
         <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>874.9271131227918</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V19" t="n">
-        <v>874.9271131227918</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="W19" t="n">
-        <v>874.9271131227918</v>
+        <v>585.5099430858318</v>
       </c>
       <c r="X19" t="n">
-        <v>646.9375622247744</v>
+        <v>585.5099430858318</v>
       </c>
       <c r="Y19" t="n">
-        <v>426.1449830812443</v>
+        <v>585.5099430858318</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
@@ -5771,31 +5771,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>253.7007023605332</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>664.5909712050459</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>894.5540770733951</v>
+        <v>887.0301175853476</v>
       </c>
       <c r="M21" t="n">
-        <v>1214.889396603097</v>
+        <v>887.0301175853476</v>
       </c>
       <c r="N21" t="n">
-        <v>1559.410052240715</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>244.1070389581962</v>
+        <v>465.7659634441658</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581962</v>
+        <v>465.7659634441658</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1305.326886885503</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1305.326886885503</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1016.198248099061</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>761.5137598931742</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="W22" t="n">
-        <v>472.0965898562135</v>
+        <v>465.7659634441658</v>
       </c>
       <c r="X22" t="n">
-        <v>244.1070389581962</v>
+        <v>465.7659634441658</v>
       </c>
       <c r="Y22" t="n">
-        <v>244.1070389581962</v>
+        <v>465.7659634441658</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5978,7 +5978,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,28 +5987,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,25 +6069,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>388.8958536704856</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>894.5540770733951</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1214.889396603097</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N24" t="n">
-        <v>1559.410052240715</v>
+        <v>2430.300015665487</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2430.300015665487</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C25" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G25" t="n">
         <v>221.5295092103129</v>
@@ -6142,16 +6142,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K25" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L25" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M25" t="n">
         <v>1048.866260860496</v>
@@ -6166,7 +6166,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q25" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R25" t="n">
         <v>1996.265827986523</v>
@@ -6178,19 +6178,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U25" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V25" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W25" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6248,13 +6248,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6294,28 +6294,28 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>222.5746515181232</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>836.4717212750119</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1156.807040804714</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N27" t="n">
-        <v>1559.410052240715</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="O27" t="n">
         <v>1808.163466324677</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506727</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083206</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504517</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103134</v>
       </c>
       <c r="H28" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6403,19 +6403,19 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R28" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S28" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T28" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U28" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
         <v>1304.027639859417</v>
@@ -6424,10 +6424,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514058</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>1189.663494389109</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1509.998813918811</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1854.519469556429</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="O30" t="n">
-        <v>2103.272883640391</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108328</v>
+        <v>3481.793971740467</v>
       </c>
       <c r="C31" t="n">
-        <v>559.344147222967</v>
+        <v>3381.677879852601</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506723</v>
+        <v>3300.381331480306</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083202</v>
+        <v>3221.288328937954</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504509</v>
+        <v>3143.218472480085</v>
       </c>
       <c r="G31" t="n">
-        <v>221.529509210313</v>
+        <v>3043.863241839947</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>2962.265324427931</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>2919.550824089919</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>2999.384087782174</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254956</v>
+        <v>3217.020063255129</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>3532.182679494603</v>
       </c>
       <c r="M31" t="n">
-        <v>1048.866260860496</v>
+        <v>3871.19999349013</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116388</v>
+        <v>4209.194673746022</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.186490350129</v>
+        <v>4510.520222979763</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184156</v>
+        <v>4754.570558813791</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>4818.599560616158</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>4687.499641571751</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771663</v>
+        <v>4532.534317401299</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>4312.225769654898</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>4126.361372489052</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862497</v>
+        <v>3905.76429349213</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045205</v>
+        <v>3746.594833634154</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010315</v>
+        <v>3594.622345530665</v>
       </c>
     </row>
     <row r="32">
@@ -6683,64 +6683,64 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,34 +6765,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M33" t="n">
-        <v>1608.660951743751</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
-        <v>1953.181607381369</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2201.935021465331</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
         <v>2623.573505376138</v>
@@ -6841,7 +6841,7 @@
         <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
         <v>320.8847398504512</v>
@@ -6853,13 +6853,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6877,13 +6877,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6898,7 +6898,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
         <v>772.2886129010316</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,34 +6920,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6977,10 +6977,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7020,22 +7020,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M36" t="n">
-        <v>1847.655958041207</v>
+        <v>1672.759814717971</v>
       </c>
       <c r="N36" t="n">
-        <v>2192.176613678825</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="O36" t="n">
-        <v>2440.930027762787</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
         <v>478.0475988506723</v>
@@ -7081,25 +7081,25 @@
         <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010311</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1122.004430061687</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M39" t="n">
-        <v>1808.163466324677</v>
+        <v>904.39166832551</v>
       </c>
       <c r="N39" t="n">
-        <v>1808.163466324677</v>
+        <v>1708.803246589661</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7330,7 +7330,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
@@ -7357,25 +7357,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>754.9984739765641</v>
+        <v>2030.299435654558</v>
       </c>
       <c r="N42" t="n">
-        <v>1559.410052240715</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,10 +7588,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M45" t="n">
-        <v>1288.32563221405</v>
+        <v>865.5852378527472</v>
       </c>
       <c r="N45" t="n">
-        <v>1288.32563221405</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>163.7584467404189</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9258,7 +9258,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9483,10 +9483,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>353.3034253639011</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9729,13 +9729,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9963,10 +9963,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>344.1139359403287</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10203,13 +10203,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10440,10 +10440,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,13 +10908,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>439.0441112732799</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11154,10 +11154,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,16 +11376,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>12.75833770738114</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>57.74837486922291</v>
+        <v>45.07145357400722</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,13 +22720,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.6925231201044</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>104.293125403573</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,13 +22762,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>125.807780547548</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>133.8953512967691</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>148.708986479902</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>10.00426342195851</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>12.74292060612325</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10.10284081784394</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>157.0156052247927</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23950,13 +23950,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,16 +24130,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>96.67962086411801</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>116.2316725517207</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>-1.932676241267473e-12</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18391.92434782022</v>
+        <v>18391.9243478202</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="D2" t="n">
         <v>20526.04424660708</v>
       </c>
       <c r="E2" t="n">
+        <v>19551.45298688545</v>
+      </c>
+      <c r="F2" t="n">
         <v>19551.45298688544</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>19551.45298688543</v>
-      </c>
-      <c r="G2" t="n">
-        <v>19551.45298688544</v>
       </c>
       <c r="H2" t="n">
         <v>19551.45298688544</v>
       </c>
       <c r="I2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.04424660711</v>
       </c>
       <c r="J2" t="n">
+        <v>20526.04424660711</v>
+      </c>
+      <c r="K2" t="n">
         <v>20526.04424660712</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>20526.04424660709</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>20526.04424660709</v>
+      </c>
+      <c r="N2" t="n">
         <v>20526.0442466071</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>20526.0442466071</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>20526.04424660712</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20526.04424660712</v>
-      </c>
-      <c r="P2" t="n">
-        <v>20526.04424660711</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.51210371258</v>
+        <v>54505.51210371239</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90335.72423892136</v>
+        <v>90335.72423892122</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.793690575903</v>
+        <v>787.7936905758286</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905759054</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758024</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905757998</v>
       </c>
       <c r="I4" t="n">
         <v>23206.58093189634</v>
       </c>
       <c r="J4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="K4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189642</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189637</v>
       </c>
       <c r="N4" t="n">
         <v>23206.58093189635</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189636</v>
@@ -26467,37 +26467,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="J5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="K5" t="n">
         <v>97715.10582002538</v>
       </c>
-      <c r="K5" t="n">
-        <v>97715.10582002539</v>
-      </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26506,7 +26506,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-744770.7571690549</v>
+        <v>-744984.1691589336</v>
       </c>
       <c r="C6" t="n">
-        <v>-201392.1729974215</v>
+        <v>-201392.1729974214</v>
       </c>
       <c r="D6" t="n">
         <v>-201392.1729974214</v>
       </c>
       <c r="E6" t="n">
-        <v>-598383.7031293033</v>
+        <v>-598481.1622552753</v>
       </c>
       <c r="F6" t="n">
-        <v>-73223.66665240709</v>
+        <v>-73321.12577837924</v>
       </c>
       <c r="G6" t="n">
-        <v>-73223.66665240702</v>
+        <v>-73321.1257783792</v>
       </c>
       <c r="H6" t="n">
-        <v>-73223.66665240703</v>
+        <v>-73321.1257783792</v>
       </c>
       <c r="I6" t="n">
-        <v>-154901.1546090272</v>
+        <v>-154901.154609027</v>
       </c>
       <c r="J6" t="n">
-        <v>-276818.8616979075</v>
+        <v>-276818.8616979076</v>
       </c>
       <c r="K6" t="n">
         <v>-100395.6425053146</v>
       </c>
       <c r="L6" t="n">
-        <v>-100395.6425053146</v>
+        <v>-100395.6425053147</v>
       </c>
       <c r="M6" t="n">
-        <v>-235196.6577391518</v>
+        <v>-235196.6577391519</v>
       </c>
       <c r="N6" t="n">
         <v>-154901.1546090272</v>
       </c>
       <c r="O6" t="n">
-        <v>-100395.6425053146</v>
+        <v>-100395.6425053147</v>
       </c>
       <c r="P6" t="n">
         <v>-100395.6425053146</v>
@@ -26704,25 +26704,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="J2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="K2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="J2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="K2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="L2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964071</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964068</v>
@@ -26747,22 +26747,22 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26802,10 +26802,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26926,10 +26926,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>368.7127164467878</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>16.97266886005346</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,10 +27622,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>234.8140598713229</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>294.4237353165815</v>
       </c>
     </row>
     <row r="6">
@@ -27789,10 +27789,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>60.8730126800275</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27822,10 +27822,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>49.80904827649567</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27853,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>287.7455275169625</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>156.0727184173235</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28026,7 +28026,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28056,22 +28056,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>17.88169127836775</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04372617964810388</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="32">
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -31130,10 +31130,10 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942361</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31364,7 +31364,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>61.04368814949358</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,10 +31382,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31601,7 +31601,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>61.04368814949403</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31838,16 +31838,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>100.7451197015268</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -31856,13 +31856,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>164.43587854859</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>288.1533596602011</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,31 +32163,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>79.92189006831802</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>231.7356543115325</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,19 +32540,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>158.8108447608512</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -32561,25 +32561,25 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927169</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>278.4799167015761</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>29.37937517308904</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927169</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>58.6690462609929</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041463</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,28 +33257,28 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>288.153359660201</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>154.5096087057374</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33506,16 +33506,16 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>241.4090972701575</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -33740,13 +33740,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>241.4090972701574</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>303.5895006136714</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33755,10 +33755,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33971,31 +33971,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>369.5189057912002</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>179.4282198748993</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34208,28 +34208,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>340.8546090773501</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
@@ -34445,22 +34445,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>352.8324835862117</v>
       </c>
       <c r="O45" t="n">
-        <v>263.0852605347122</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>341.0678223458549</v>
@@ -34469,7 +34469,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34778,10 +34778,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>60.29709682323572</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>60.29709682323617</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>227.3689177397464</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
@@ -35504,13 +35504,13 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>234.5313921984175</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>25.91700776605995</v>
       </c>
       <c r="L15" t="n">
-        <v>520.4393251837861</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>427.9225523285382</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>416.2240155371395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>158.0642534345933</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>214.7490455840269</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>510.7658822251611</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>377.3800374333093</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K25" t="n">
         <v>219.8343186595512</v>
@@ -36528,10 +36528,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O25" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P25" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q25" t="n">
         <v>107.3575901015154</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>406.6697085212131</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>201.5176914958843</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K28" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L28" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M28" t="n">
         <v>342.4417313086132</v>
@@ -36765,13 +36765,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q28" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303305</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>520.439325183786</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>502.5102709659576</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N31" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37154,16 +37154,16 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>425.8974584957645</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37388,25 +37388,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>564.980127098139</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>651.5901628738916</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>693.0899356191818</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>430.6942947071844</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>664.4256389053317</v>
+        <v>749.4684883237461</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>700.8331458464319</v>
       </c>
       <c r="O45" t="n">
-        <v>514.3513353669973</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
@@ -38117,7 +38117,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
